--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1440.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1440.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.861540567892981</v>
+        <v>1.429735422134399</v>
       </c>
       <c r="B1">
-        <v>2.240051108016394</v>
+        <v>3.516790390014648</v>
       </c>
       <c r="C1">
-        <v>3.014797982944959</v>
+        <v>5.37604284286499</v>
       </c>
       <c r="D1">
-        <v>1.784022681751359</v>
+        <v>1.736026763916016</v>
       </c>
       <c r="E1">
-        <v>0.6169576278175869</v>
+        <v>0.9735450744628906</v>
       </c>
     </row>
   </sheetData>
